--- a/GameDesign/Class/_Done/7-Druid/Documentation/DruidSkills.xlsx
+++ b/GameDesign/Class/_Done/7-Druid/Documentation/DruidSkills.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Client\Desktop\My_Dev\BattleForVoxturia\GameDesign\Class\_Done\7-Druide\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Client\Desktop\My_Dev\BattleForVoxturia\GameDesign\Class\_Done\7-Druid\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="843" firstSheet="4" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="843" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="1-FountainOfImmortality" sheetId="1" r:id="rId1"/>
@@ -276,7 +276,7 @@
         <rFont val="Arial Black"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">[[Laziness]] </t>
+      <t xml:space="preserve">[[Slowness]] </t>
     </r>
     <r>
       <rPr>
@@ -296,6 +296,35 @@
         <rFont val="Arial Black"/>
         <family val="2"/>
       </rPr>
+      <t>[[Blindness]]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> +1 levels (00 turns)</t>
+    </r>
+  </si>
+  <si>
+    <t>Summons a ''Enchanted Fountain'' [[40% summoner HP, 0 AP, 0 MP, -50% ground resistence, -25% fire resistence, 50% water resistence, 25% wind resistence, 100% light resistence, -100% dark resistence]]</t>
+  </si>
+  <si>
+    <t>[[Reduce all buff by 1 turn ]]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
       <t xml:space="preserve">[[Slowness]] </t>
     </r>
     <r>
@@ -305,18 +334,218 @@
         <rFont val="Arial Black"/>
         <family val="2"/>
       </rPr>
+      <t>+1 level (2 turns)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    Caster: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t>[[Void]]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> +10 levels (00 turns)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Targeting an ennemy: </t>
+  </si>
+  <si>
+    <t>Targeting the caster or an ally:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    [[Heal: 200-250 light ]]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[[Slowness]] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t>+1 level (00 turns)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    Caster: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t>[[Void]]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> +5 levels (00 turns)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">    [[Damage: 100-125 fire ]]</t>
+  </si>
+  <si>
+    <t>Inflicts Fire-type damage on ennemies                                               OR                                                                                                     Heal Light-type on caster and allies.                                                                                                                            Also reduce the target AP and MP whit a duration depending of the target.                                                                                                The caster life expectancy is reduced.</t>
+  </si>
+  <si>
+    <t>Targeting caster summon or ally summon:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    In the area of effect: [[Heal: 50-75 light]]</t>
+  </si>
+  <si>
+    <t>Targeting enemy:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    In the area of effect: [[Heal: 10-15 light]]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Targeted cell: [[Damage: 35-40 fire]]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Targeted cell: [[K/O]]</t>
+  </si>
+  <si>
+    <t>Increase the cooldown of an enemy skills already in a cooldown process.                                                                                                    OR                                                                                                Reduce the cooldown of the caster or an ally skills.</t>
+  </si>
+  <si>
+    <t>On ennemy: [[Increase skills cooldown by 1 ]]</t>
+  </si>
+  <si>
+    <t>On self OR ally: [[Reduce skills cooldown by 1 ]]</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t>[[Imbolc]]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (1 turn)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t>[[Beltane]]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (1 turn)</t>
+    </r>
+  </si>
+  <si>
+    <t>Heal all the entities in the map.                                                       The effect is triggered the next turn.</t>
+  </si>
+  <si>
+    <t>Reduce damage taken.                                                                            The effect is triggered the next turn around the caster.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t>[[Lugnasa]]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (1 turn)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">[[Exhausted]] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
       <t>+1 levels (00 turns)</t>
     </r>
   </si>
   <si>
     <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
       <rPr>
         <sz val="12"/>
         <color rgb="FFC00000"/>
         <rFont val="Arial Black"/>
         <family val="2"/>
       </rPr>
-      <t>[[Blindness]]</t>
+      <t>[[Exhausted]]</t>
     </r>
     <r>
       <rPr>
@@ -325,14 +554,8 @@
         <rFont val="Arial Black"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> +1 levels (00 turns)</t>
-    </r>
-  </si>
-  <si>
-    <t>Summons a ''Enchanted Fountain'' [[40% summoner HP, 0 AP, 0 MP, -50% ground resistence, -25% fire resistence, 50% water resistence, 25% wind resistence, 100% light resistence, -100% dark resistence]]</t>
-  </si>
-  <si>
-    <t>[[Reduce all buff by 1 turn ]]</t>
+      <t xml:space="preserve"> +1 level (00 turns)</t>
+    </r>
   </si>
   <si>
     <r>
@@ -345,7 +568,7 @@
         <rFont val="Arial Black"/>
         <family val="2"/>
       </rPr>
-      <t>[[Laziness]]</t>
+      <t>[[Exhausted]]</t>
     </r>
     <r>
       <rPr>
@@ -355,229 +578,6 @@
         <family val="2"/>
       </rPr>
       <t xml:space="preserve"> +1 level (2 turns)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial Black"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">[[Slowness]] </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial Black"/>
-        <family val="2"/>
-      </rPr>
-      <t>+1 level (2 turns)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">    Caster: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial Black"/>
-        <family val="2"/>
-      </rPr>
-      <t>[[Void]]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial Black"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> +10 levels (00 turns)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Targeting an ennemy: </t>
-  </si>
-  <si>
-    <t>Targeting the caster or an ally:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    [[Heal: 200-250 light ]]</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial Black"/>
-        <family val="2"/>
-      </rPr>
-      <t>[[Laziness]]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial Black"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> +1 level (00 turns)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial Black"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">[[Slowness]] </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial Black"/>
-        <family val="2"/>
-      </rPr>
-      <t>+1 level (00 turns)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">    Caster: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial Black"/>
-        <family val="2"/>
-      </rPr>
-      <t>[[Void]]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial Black"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> +5 levels (00 turns)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">    [[Damage: 100-125 fire ]]</t>
-  </si>
-  <si>
-    <t>Inflicts Fire-type damage on ennemies                                               OR                                                                                                     Heal Light-type on caster and allies.                                                                                                                            Also reduce the target AP and MP whit a duration depending of the target.                                                                                                The caster life expectancy is reduced.</t>
-  </si>
-  <si>
-    <t>Targeting caster summon or ally summon:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    In the area of effect: [[Heal: 50-75 light]]</t>
-  </si>
-  <si>
-    <t>Targeting enemy:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    In the area of effect: [[Heal: 10-15 light]]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Targeted cell: [[Damage: 35-40 fire]]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Targeted cell: [[K/O]]</t>
-  </si>
-  <si>
-    <t>Increase the cooldown of an enemy skills already in a cooldown process.                                                                                                    OR                                                                                                Reduce the cooldown of the caster or an ally skills.</t>
-  </si>
-  <si>
-    <t>On ennemy: [[Increase skills cooldown by 1 ]]</t>
-  </si>
-  <si>
-    <t>On self OR ally: [[Reduce skills cooldown by 1 ]]</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial Black"/>
-        <family val="2"/>
-      </rPr>
-      <t>[[Imbolc]]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial Black"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (1 turn)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial Black"/>
-        <family val="2"/>
-      </rPr>
-      <t>[[Beltane]]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial Black"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (1 turn)</t>
-    </r>
-  </si>
-  <si>
-    <t>Heal all the entities in the map.                                                       The effect is triggered the next turn.</t>
-  </si>
-  <si>
-    <t>Reduce damage taken.                                                                            The effect is triggered the next turn around the caster.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial Black"/>
-        <family val="2"/>
-      </rPr>
-      <t>[[Lugnasa]]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial Black"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (1 turn)</t>
     </r>
   </si>
 </sst>
@@ -1219,21 +1219,21 @@
     <row r="22" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B22" s="1"/>
       <c r="C22" s="13" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="D22" s="1"/>
     </row>
     <row r="23" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B23" s="1"/>
       <c r="C23" s="13" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D23" s="1"/>
     </row>
     <row r="24" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B24" s="1"/>
       <c r="C24" s="13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D24" s="1"/>
     </row>
@@ -1287,7 +1287,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
@@ -1320,7 +1320,7 @@
     <row r="5" spans="2:4" ht="39" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -1394,7 +1394,7 @@
     <row r="17" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B17" s="1"/>
       <c r="C17" s="2" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D17" s="1"/>
     </row>
@@ -1562,7 +1562,7 @@
     <row r="19" spans="2:4" ht="78.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
       <c r="C19" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D19" s="1"/>
     </row>
@@ -1737,7 +1737,7 @@
     <row r="18" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B18" s="1"/>
       <c r="C18" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D18" s="1"/>
     </row>
@@ -1959,8 +1959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D34"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1992,7 +1992,7 @@
     <row r="5" spans="2:4" ht="117" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -2073,70 +2073,70 @@
     <row r="18" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B18" s="1"/>
       <c r="C18" s="13" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D18" s="1"/>
     </row>
     <row r="19" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B19" s="1"/>
       <c r="C19" s="13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D19" s="1"/>
     </row>
     <row r="20" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B20" s="1"/>
       <c r="C20" s="13" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
       <c r="D20" s="1"/>
     </row>
     <row r="21" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B21" s="1"/>
       <c r="C21" s="13" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D21" s="1"/>
     </row>
     <row r="22" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B22" s="1"/>
       <c r="C22" s="15" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D22" s="1"/>
     </row>
     <row r="23" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B23" s="1"/>
       <c r="C23" s="13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D23" s="1"/>
     </row>
     <row r="24" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B24" s="1"/>
       <c r="C24" s="13" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D24" s="1"/>
     </row>
     <row r="25" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B25" s="1"/>
       <c r="C25" s="13" t="s">
-        <v>66</v>
+        <v>90</v>
       </c>
       <c r="D25" s="1"/>
     </row>
     <row r="26" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B26" s="1"/>
       <c r="C26" s="13" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D26" s="1"/>
     </row>
     <row r="27" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B27" s="1"/>
       <c r="C27" s="15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D27" s="1"/>
     </row>
@@ -2304,42 +2304,42 @@
     <row r="19" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B19" s="1"/>
       <c r="C19" s="12" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D19" s="1"/>
     </row>
     <row r="20" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B20" s="1"/>
       <c r="C20" s="11" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D20" s="1"/>
     </row>
     <row r="21" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B21" s="1"/>
       <c r="C21" s="14" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D21" s="1"/>
     </row>
     <row r="22" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B22" s="1"/>
       <c r="C22" s="12" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D22" s="1"/>
     </row>
     <row r="23" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B23" s="1"/>
       <c r="C23" s="11" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D23" s="1"/>
     </row>
     <row r="24" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B24" s="1"/>
       <c r="C24" s="14" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D24" s="1"/>
     </row>
@@ -2419,7 +2419,7 @@
     <row r="5" spans="2:4" ht="78" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="8" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -2500,14 +2500,14 @@
     <row r="18" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B18" s="1"/>
       <c r="C18" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D18" s="1"/>
     </row>
     <row r="19" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B19" s="1"/>
       <c r="C19" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D19" s="1"/>
     </row>
@@ -2661,7 +2661,7 @@
     <row r="17" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B17" s="1"/>
       <c r="C17" s="2" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D17" s="1"/>
     </row>
@@ -2741,7 +2741,7 @@
     <row r="5" spans="2:4" ht="39" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="8" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -2815,7 +2815,7 @@
     <row r="17" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B17" s="1"/>
       <c r="C17" s="2" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D17" s="1"/>
     </row>

--- a/GameDesign/Class/_Done/7-Druid/Documentation/DruidSkills.xlsx
+++ b/GameDesign/Class/_Done/7-Druid/Documentation/DruidSkills.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="17726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Client\Desktop\My_Dev\BattleForVoxturia\GameDesign\Class\_Done\7-Druid\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sébastien Godbout\Desktop\_MyDev\BattleForVoxturia\GameDesign\Class\_Done\7-Druid\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="843" firstSheet="3" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435" tabRatio="843" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="1-FountainOfImmortality" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="87">
   <si>
     <t>Additional Info</t>
   </si>
@@ -44,9 +44,6 @@
     <t xml:space="preserve">Reanimate an K/O entity that died on the glyph at his turn.                                                                       The entity can't be reanimated a second time.                                                               The reanimated entity can't be healed.                                            </t>
   </si>
   <si>
-    <t>[[AP: 7 ]]</t>
-  </si>
-  <si>
     <t>[[MP: 2 ]]</t>
   </si>
   <si>
@@ -119,9 +116,6 @@
     <t>[[AP: 3 ]]</t>
   </si>
   <si>
-    <t>[[Number of casts per turn: 3 ]]</t>
-  </si>
-  <si>
     <t>[[Number of cast per turn per target: 1 ]]</t>
   </si>
   <si>
@@ -140,9 +134,6 @@
     <t>Advanced Medicine</t>
   </si>
   <si>
-    <t>[[AP: 6 ]]</t>
-  </si>
-  <si>
     <t>[[Number of casts per turn: 1 ]]</t>
   </si>
   <si>
@@ -152,9 +143,6 @@
     <t>[[Modifiable range: No ]]</t>
   </si>
   <si>
-    <t>[[Cast in straight line: -No ]]</t>
-  </si>
-  <si>
     <t>Inflicts Water-type damage on ennemies                                             OR                                                                                                     Heal Water-type on caster and allies.</t>
   </si>
   <si>
@@ -170,15 +158,9 @@
     <t xml:space="preserve">Inflicts Fire-type damage on ennemies and heal Light-type the entity around.                                                                                                OR                                                                                                        Kill an allie summon and heal Light-type the entity around.                                                                                                                            </t>
   </si>
   <si>
-    <t>[[Number of cast per turn per target: 2 ]]</t>
-  </si>
-  <si>
     <t>On allies: [[Heal:  35-40 water ]]</t>
   </si>
   <si>
-    <t>On ennemy: [[Damage:  35-40 water ]]</t>
-  </si>
-  <si>
     <t>Imbolc</t>
   </si>
   <si>
@@ -204,9 +186,6 @@
   </si>
   <si>
     <t>Reduce all the buff of the entities and heal the caster and his allies. The effect is triggered the next turn around the caster.</t>
-  </si>
-  <si>
-    <t>Summons a ''Fountain Of Immortality'' [[75% summoner HP, 0 AP, 0 MP, -50% ground resistence, -25% fire resistence, 50% water resistence, 25% wind resistence, 100% light resistence, -100% dark resistence]]</t>
   </si>
   <si>
     <r>
@@ -256,7 +235,7 @@
         <rFont val="Arial Black"/>
         <family val="2"/>
       </rPr>
-      <t>[[Phobia of Darkness]]</t>
+      <t xml:space="preserve">[[Slowness]] </t>
     </r>
     <r>
       <rPr>
@@ -265,10 +244,39 @@
         <rFont val="Arial Black"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> +100 levels (00 turns)</t>
-    </r>
-  </si>
-  <si>
+      <t>+1 levels (00 turns)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t>[[Blindness]]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> +1 levels (00 turns)</t>
+    </r>
+  </si>
+  <si>
+    <t>Summons a ''Enchanted Fountain'' [[40% summoner HP, 0 AP, 0 MP, -50% ground resistence, -25% fire resistence, 50% water resistence, 25% wind resistence, 100% light resistence, -100% dark resistence]]</t>
+  </si>
+  <si>
+    <t>[[Reduce all buff by 1 turn ]]</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
     <r>
       <rPr>
         <sz val="12"/>
@@ -285,34 +293,17 @@
         <rFont val="Arial Black"/>
         <family val="2"/>
       </rPr>
-      <t>+1 levels (00 turns)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial Black"/>
-        <family val="2"/>
-      </rPr>
-      <t>[[Blindness]]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial Black"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> +1 levels (00 turns)</t>
-    </r>
-  </si>
-  <si>
-    <t>Summons a ''Enchanted Fountain'' [[40% summoner HP, 0 AP, 0 MP, -50% ground resistence, -25% fire resistence, 50% water resistence, 25% wind resistence, 100% light resistence, -100% dark resistence]]</t>
-  </si>
-  <si>
-    <t>[[Reduce all buff by 1 turn ]]</t>
+      <t>+1 level (2 turns)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Targeting an ennemy: </t>
+  </si>
+  <si>
+    <t>Targeting the caster or an ally:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    [[Heal: 200-250 light ]]</t>
   </si>
   <si>
     <r>
@@ -334,7 +325,7 @@
         <rFont val="Arial Black"/>
         <family val="2"/>
       </rPr>
-      <t>+1 level (2 turns)</t>
+      <t>+1 level (00 turns)</t>
     </r>
   </si>
   <si>
@@ -357,22 +348,43 @@
         <rFont val="Arial Black"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> +10 levels (00 turns)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Targeting an ennemy: </t>
-  </si>
-  <si>
-    <t>Targeting the caster or an ally:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    [[Heal: 200-250 light ]]</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">    </t>
-    </r>
+      <t xml:space="preserve"> +5 levels (00 turns)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">    [[Damage: 100-125 fire ]]</t>
+  </si>
+  <si>
+    <t>Inflicts Fire-type damage on ennemies                                               OR                                                                                                     Heal Light-type on caster and allies.                                                                                                                            Also reduce the target AP and MP whit a duration depending of the target.                                                                                                The caster life expectancy is reduced.</t>
+  </si>
+  <si>
+    <t>Targeting caster summon or ally summon:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    In the area of effect: [[Heal: 50-75 light]]</t>
+  </si>
+  <si>
+    <t>Targeting enemy:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    In the area of effect: [[Heal: 10-15 light]]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Targeted cell: [[Damage: 35-40 fire]]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Targeted cell: [[K/O]]</t>
+  </si>
+  <si>
+    <t>Increase the cooldown of an enemy skills already in a cooldown process.                                                                                                    OR                                                                                                Reduce the cooldown of the caster or an ally skills.</t>
+  </si>
+  <si>
+    <t>On ennemy: [[Increase skills cooldown by 1 ]]</t>
+  </si>
+  <si>
+    <t>On self OR ally: [[Reduce skills cooldown by 1 ]]</t>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="12"/>
@@ -380,7 +392,7 @@
         <rFont val="Arial Black"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">[[Slowness]] </t>
+      <t xml:space="preserve">[[Exhausted]] </t>
     </r>
     <r>
       <rPr>
@@ -389,8 +401,60 @@
         <rFont val="Arial Black"/>
         <family val="2"/>
       </rPr>
-      <t>+1 level (00 turns)</t>
-    </r>
+      <t>+1 levels (00 turns)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t>[[Exhausted]]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> +1 level (00 turns)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFC00000"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t>[[Exhausted]]</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> +1 level (2 turns)</t>
+    </r>
+  </si>
+  <si>
+    <t>Summons a ''Fountain Of Immortality'' [[60% summoner HP, 0 AP, 0 MP, -50% ground resistence, -25% fire resistence, 50% water resistence, 25% wind resistence, 100% light resistence, -100% dark resistence]]</t>
+  </si>
+  <si>
+    <t>On ennemy: [[Damage:  25-30 water ]]</t>
   </si>
   <si>
     <r>
@@ -412,41 +476,17 @@
         <rFont val="Arial Black"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> +5 levels (00 turns)</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">    [[Damage: 100-125 fire ]]</t>
-  </si>
-  <si>
-    <t>Inflicts Fire-type damage on ennemies                                               OR                                                                                                     Heal Light-type on caster and allies.                                                                                                                            Also reduce the target AP and MP whit a duration depending of the target.                                                                                                The caster life expectancy is reduced.</t>
-  </si>
-  <si>
-    <t>Targeting caster summon or ally summon:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    In the area of effect: [[Heal: 50-75 light]]</t>
-  </si>
-  <si>
-    <t>Targeting enemy:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    In the area of effect: [[Heal: 10-15 light]]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Targeted cell: [[Damage: 35-40 fire]]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    Targeted cell: [[K/O]]</t>
-  </si>
-  <si>
-    <t>Increase the cooldown of an enemy skills already in a cooldown process.                                                                                                    OR                                                                                                Reduce the cooldown of the caster or an ally skills.</t>
-  </si>
-  <si>
-    <t>On ennemy: [[Increase skills cooldown by 1 ]]</t>
-  </si>
-  <si>
-    <t>On self OR ally: [[Reduce skills cooldown by 1 ]]</t>
+      <t xml:space="preserve"> +15 levels (00 turns)</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Heal all the entities in the map.                                                       </t>
+  </si>
+  <si>
+    <t>[[Heal:  50% max HP]]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reduce damage taken.                                                                            </t>
   </si>
   <si>
     <r>
@@ -456,7 +496,15 @@
         <rFont val="Arial Black"/>
         <family val="2"/>
       </rPr>
-      <t>[[Imbolc]]</t>
+      <t xml:space="preserve">[[Armor]] </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Arial Black"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">+25 levels </t>
     </r>
     <r>
       <rPr>
@@ -465,7 +513,7 @@
         <rFont val="Arial Black"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> (1 turn)</t>
+      <t xml:space="preserve"> (2 turns)</t>
     </r>
   </si>
   <si>
@@ -476,116 +524,29 @@
         <rFont val="Arial Black"/>
         <family val="2"/>
       </rPr>
-      <t>[[Beltane]]</t>
+      <t>[[Void]]</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
-        <color theme="1"/>
         <rFont val="Arial Black"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> (1 turn)</t>
-    </r>
-  </si>
-  <si>
-    <t>Heal all the entities in the map.                                                       The effect is triggered the next turn.</t>
-  </si>
-  <si>
-    <t>Reduce damage taken.                                                                            The effect is triggered the next turn around the caster.</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial Black"/>
-        <family val="2"/>
-      </rPr>
-      <t>[[Lugnasa]]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial Black"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> (1 turn)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial Black"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">[[Exhausted]] </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial Black"/>
-        <family val="2"/>
-      </rPr>
-      <t>+1 levels (00 turns)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial Black"/>
-        <family val="2"/>
-      </rPr>
-      <t>[[Exhausted]]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial Black"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> +1 level (00 turns)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">    </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color rgb="FFC00000"/>
-        <rFont val="Arial Black"/>
-        <family val="2"/>
-      </rPr>
-      <t>[[Exhausted]]</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Arial Black"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> +1 level (2 turns)</t>
-    </r>
+      <t xml:space="preserve"> -5 levels</t>
+    </r>
+  </si>
+  <si>
+    <t>[[Reduce all buff by 3 turn ]]</t>
+  </si>
+  <si>
+    <t>[[Heal:  10% max HP]]</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -620,6 +581,11 @@
     <font>
       <sz val="12"/>
       <color rgb="FFC00000"/>
+      <name val="Arial Black"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <name val="Arial Black"/>
       <family val="2"/>
     </font>
@@ -732,7 +698,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -761,6 +727,7 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1074,14 +1041,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:D31"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="2.85546875" customWidth="1"/>
     <col min="3" max="3" width="87" customWidth="1"/>
@@ -1122,21 +1089,21 @@
     <row r="7" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B7" s="1"/>
       <c r="C7" s="2" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B8" s="1"/>
       <c r="C8" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B9" s="1"/>
       <c r="C9" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D9" s="1"/>
     </row>
@@ -1148,21 +1115,21 @@
     <row r="11" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B11" s="1"/>
       <c r="C11" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B12" s="1"/>
       <c r="C12" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B13" s="1"/>
       <c r="C13" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D13" s="1"/>
     </row>
@@ -1174,7 +1141,7 @@
     <row r="15" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B15" s="1"/>
       <c r="C15" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D15" s="1"/>
     </row>
@@ -1186,7 +1153,7 @@
     <row r="17" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B17" s="1"/>
       <c r="C17" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D17" s="1"/>
     </row>
@@ -1198,84 +1165,77 @@
     <row r="19" spans="2:4" ht="78.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
       <c r="C19" s="10" t="s">
-        <v>57</v>
+        <v>77</v>
       </c>
       <c r="D19" s="1"/>
     </row>
     <row r="20" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B20" s="1"/>
       <c r="C20" s="12" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="D20" s="1"/>
     </row>
     <row r="21" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B21" s="1"/>
       <c r="C21" s="14" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="D21" s="1"/>
     </row>
     <row r="22" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B22" s="1"/>
       <c r="C22" s="13" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="D22" s="1"/>
     </row>
     <row r="23" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B23" s="1"/>
       <c r="C23" s="13" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D23" s="1"/>
     </row>
     <row r="24" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B24" s="1"/>
       <c r="C24" s="13" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
-      <c r="C25" s="14" t="s">
-        <v>60</v>
-      </c>
+      <c r="C25" s="1"/>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="2:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B27" s="1"/>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+    </row>
+    <row r="28" spans="2:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
+      <c r="C28" s="4" t="s">
+        <v>0</v>
+      </c>
       <c r="D28" s="1"/>
     </row>
-    <row r="29" spans="2:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B29" s="1"/>
-      <c r="C29" s="4" t="s">
-        <v>0</v>
-      </c>
+      <c r="C29" s="1"/>
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B30" s="1"/>
-      <c r="C30" s="1"/>
+      <c r="C30" s="7"/>
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B31" s="1"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="1"/>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B32" s="1"/>
-      <c r="C32" s="1"/>
-      <c r="D32" s="5"/>
+      <c r="C31" s="1"/>
+      <c r="D31" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1284,14 +1244,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="B2:D24"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="2.85546875" customWidth="1"/>
     <col min="3" max="3" width="85.7109375" customWidth="1"/>
@@ -1308,7 +1268,7 @@
     <row r="3" spans="2:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="6" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -1317,10 +1277,10 @@
       <c r="C4" s="3"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="2:4" ht="39" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="8" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -1332,21 +1292,21 @@
     <row r="7" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B7" s="1"/>
       <c r="C7" s="2" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B8" s="1"/>
       <c r="C8" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B9" s="1"/>
       <c r="C9" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D9" s="1"/>
     </row>
@@ -1358,7 +1318,7 @@
     <row r="11" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B11" s="1"/>
       <c r="C11" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D11" s="1"/>
     </row>
@@ -1370,7 +1330,7 @@
     <row r="13" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B13" s="1"/>
       <c r="C13" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D13" s="1"/>
     </row>
@@ -1382,7 +1342,7 @@
     <row r="15" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B15" s="1"/>
       <c r="C15" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D15" s="1"/>
     </row>
@@ -1393,8 +1353,8 @@
     </row>
     <row r="17" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B17" s="1"/>
-      <c r="C17" s="2" t="s">
-        <v>87</v>
+      <c r="C17" s="16" t="s">
+        <v>81</v>
       </c>
       <c r="D17" s="1"/>
     </row>
@@ -1438,14 +1398,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:D28"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="2.85546875" customWidth="1"/>
     <col min="3" max="3" width="85.7109375" customWidth="1"/>
@@ -1462,7 +1422,7 @@
     <row r="3" spans="2:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -1474,7 +1434,7 @@
     <row r="5" spans="2:4" ht="58.5" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -1486,21 +1446,21 @@
     <row r="7" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B7" s="1"/>
       <c r="C7" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B8" s="1"/>
       <c r="C8" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B9" s="1"/>
       <c r="C9" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D9" s="1"/>
     </row>
@@ -1512,21 +1472,21 @@
     <row r="11" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B11" s="1"/>
       <c r="C11" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B12" s="1"/>
       <c r="C12" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B13" s="1"/>
       <c r="C13" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D13" s="1"/>
     </row>
@@ -1538,7 +1498,7 @@
     <row r="15" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B15" s="1"/>
       <c r="C15" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D15" s="1"/>
     </row>
@@ -1550,7 +1510,7 @@
     <row r="17" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B17" s="1"/>
       <c r="C17" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D17" s="1"/>
     </row>
@@ -1562,21 +1522,21 @@
     <row r="19" spans="2:4" ht="78.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B19" s="1"/>
       <c r="C19" s="10" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D19" s="1"/>
     </row>
     <row r="20" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B20" s="1"/>
       <c r="C20" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D20" s="1"/>
     </row>
     <row r="21" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B21" s="1"/>
       <c r="C21" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D21" s="1"/>
     </row>
@@ -1620,14 +1580,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:D25"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+    <sheetView topLeftCell="A4" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="2.85546875" customWidth="1"/>
     <col min="3" max="3" width="85.7109375" customWidth="1"/>
@@ -1644,7 +1604,7 @@
     <row r="3" spans="2:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -1656,7 +1616,7 @@
     <row r="5" spans="2:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -1668,14 +1628,14 @@
     <row r="7" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B7" s="1"/>
       <c r="C7" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B8" s="1"/>
       <c r="C8" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8" s="1"/>
     </row>
@@ -1687,21 +1647,21 @@
     <row r="10" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B10" s="1"/>
       <c r="C10" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B11" s="1"/>
       <c r="C11" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B12" s="1"/>
       <c r="C12" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D12" s="1"/>
     </row>
@@ -1713,7 +1673,7 @@
     <row r="14" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B14" s="1"/>
       <c r="C14" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D14" s="1"/>
     </row>
@@ -1725,7 +1685,7 @@
     <row r="16" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B16" s="1"/>
       <c r="C16" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D16" s="1"/>
     </row>
@@ -1737,7 +1697,7 @@
     <row r="18" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B18" s="1"/>
       <c r="C18" s="2" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D18" s="1"/>
     </row>
@@ -1781,14 +1741,14 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="B2:D26"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="2.85546875" customWidth="1"/>
     <col min="3" max="3" width="85.7109375" customWidth="1"/>
@@ -1805,7 +1765,7 @@
     <row r="3" spans="2:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -1817,7 +1777,7 @@
     <row r="5" spans="2:4" ht="58.5" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="8" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -1829,14 +1789,14 @@
     <row r="7" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B7" s="1"/>
       <c r="C7" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B8" s="1"/>
       <c r="C8" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8" s="1"/>
     </row>
@@ -1848,21 +1808,21 @@
     <row r="10" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B10" s="1"/>
       <c r="C10" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B11" s="1"/>
       <c r="C11" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B12" s="1"/>
       <c r="C12" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D12" s="1"/>
     </row>
@@ -1874,80 +1834,73 @@
     <row r="14" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B14" s="1"/>
       <c r="C14" s="2" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B15" s="1"/>
-      <c r="C15" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="C15" s="2"/>
       <c r="D15" s="1"/>
     </row>
     <row r="16" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B16" s="1"/>
-      <c r="C16" s="2"/>
+      <c r="C16" s="2" t="s">
+        <v>22</v>
+      </c>
       <c r="D16" s="1"/>
     </row>
-    <row r="17" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="17" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
-      <c r="C17" s="2" t="s">
-        <v>23</v>
-      </c>
+      <c r="C17" s="1"/>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
+      <c r="C18" s="9" t="s">
+        <v>78</v>
+      </c>
       <c r="D18" s="1"/>
     </row>
     <row r="19" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B19" s="1"/>
       <c r="C19" s="9" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="D19" s="1"/>
     </row>
-    <row r="20" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
-      <c r="C20" s="9" t="s">
-        <v>46</v>
-      </c>
+      <c r="C20" s="1"/>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="2:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+    </row>
+    <row r="23" spans="2:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
+      <c r="C23" s="4" t="s">
+        <v>0</v>
+      </c>
       <c r="D23" s="1"/>
     </row>
-    <row r="24" spans="2:4" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
-      <c r="C24" s="4" t="s">
-        <v>0</v>
-      </c>
+      <c r="C24" s="1"/>
       <c r="D24" s="1"/>
     </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
+      <c r="C25" s="7"/>
       <c r="D25" s="1"/>
     </row>
-    <row r="26" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B26" s="1"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-      <c r="D27" s="5"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1956,14 +1909,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B2:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView topLeftCell="A4" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="2.85546875" customWidth="1"/>
     <col min="3" max="3" width="85.7109375" customWidth="1"/>
@@ -1980,7 +1933,7 @@
     <row r="3" spans="2:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="6" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -1992,7 +1945,7 @@
     <row r="5" spans="2:4" ht="117" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="8" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -2004,14 +1957,14 @@
     <row r="7" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B7" s="1"/>
       <c r="C7" s="2" t="s">
-        <v>35</v>
+        <v>43</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B8" s="1"/>
       <c r="C8" s="2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D8" s="1"/>
     </row>
@@ -2023,21 +1976,21 @@
     <row r="10" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B10" s="1"/>
       <c r="C10" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B11" s="1"/>
       <c r="C11" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B12" s="1"/>
       <c r="C12" s="2" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="D12" s="1"/>
     </row>
@@ -2049,7 +2002,7 @@
     <row r="14" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B14" s="1"/>
       <c r="C14" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D14" s="1"/>
     </row>
@@ -2061,7 +2014,7 @@
     <row r="16" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B16" s="1"/>
       <c r="C16" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D16" s="1"/>
     </row>
@@ -2073,70 +2026,70 @@
     <row r="18" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B18" s="1"/>
       <c r="C18" s="13" t="s">
-        <v>68</v>
+        <v>59</v>
       </c>
       <c r="D18" s="1"/>
     </row>
     <row r="19" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B19" s="1"/>
       <c r="C19" s="13" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="D19" s="1"/>
     </row>
     <row r="20" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B20" s="1"/>
       <c r="C20" s="13" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="D20" s="1"/>
     </row>
     <row r="21" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B21" s="1"/>
       <c r="C21" s="13" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="D21" s="1"/>
     </row>
     <row r="22" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B22" s="1"/>
       <c r="C22" s="15" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="D22" s="1"/>
     </row>
     <row r="23" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B23" s="1"/>
       <c r="C23" s="13" t="s">
-        <v>67</v>
+        <v>58</v>
       </c>
       <c r="D23" s="1"/>
     </row>
     <row r="24" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B24" s="1"/>
       <c r="C24" s="13" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="D24" s="1"/>
     </row>
     <row r="25" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B25" s="1"/>
       <c r="C25" s="13" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="D25" s="1"/>
     </row>
     <row r="26" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B26" s="1"/>
       <c r="C26" s="13" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D26" s="1"/>
     </row>
     <row r="27" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B27" s="1"/>
       <c r="C27" s="15" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
       <c r="D27" s="1"/>
     </row>
@@ -2180,14 +2133,14 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="B2:D31"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="2.85546875" customWidth="1"/>
     <col min="3" max="3" width="85.7109375" customWidth="1"/>
@@ -2204,7 +2157,7 @@
     <row r="3" spans="2:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -2216,7 +2169,7 @@
     <row r="5" spans="2:4" ht="78" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -2228,14 +2181,14 @@
     <row r="7" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B7" s="1"/>
       <c r="C7" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B8" s="1"/>
       <c r="C8" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8" s="1"/>
     </row>
@@ -2247,21 +2200,21 @@
     <row r="10" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B10" s="1"/>
       <c r="C10" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B11" s="1"/>
       <c r="C11" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B12" s="1"/>
       <c r="C12" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D12" s="1"/>
     </row>
@@ -2273,14 +2226,14 @@
     <row r="14" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B14" s="1"/>
       <c r="C14" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B15" s="1"/>
       <c r="C15" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D15" s="1"/>
     </row>
@@ -2292,7 +2245,7 @@
     <row r="17" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B17" s="1"/>
       <c r="C17" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="D17" s="1"/>
     </row>
@@ -2304,42 +2257,42 @@
     <row r="19" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B19" s="1"/>
       <c r="C19" s="12" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="D19" s="1"/>
     </row>
     <row r="20" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B20" s="1"/>
       <c r="C20" s="11" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D20" s="1"/>
     </row>
     <row r="21" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B21" s="1"/>
       <c r="C21" s="14" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="D21" s="1"/>
     </row>
     <row r="22" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B22" s="1"/>
       <c r="C22" s="12" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="D22" s="1"/>
     </row>
     <row r="23" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B23" s="1"/>
       <c r="C23" s="11" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D23" s="1"/>
     </row>
     <row r="24" spans="2:4" ht="20.25" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B24" s="1"/>
       <c r="C24" s="14" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="D24" s="1"/>
     </row>
@@ -2383,14 +2336,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="B2:D26"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="2.85546875" customWidth="1"/>
     <col min="3" max="3" width="85.7109375" customWidth="1"/>
@@ -2407,7 +2360,7 @@
     <row r="3" spans="2:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -2419,7 +2372,7 @@
     <row r="5" spans="2:4" ht="78" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="8" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -2431,14 +2384,14 @@
     <row r="7" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B7" s="1"/>
       <c r="C7" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B8" s="1"/>
       <c r="C8" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D8" s="1"/>
     </row>
@@ -2450,21 +2403,21 @@
     <row r="10" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B10" s="1"/>
       <c r="C10" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B11" s="1"/>
       <c r="C11" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B12" s="1"/>
       <c r="C12" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D12" s="1"/>
     </row>
@@ -2476,7 +2429,7 @@
     <row r="14" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B14" s="1"/>
       <c r="C14" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D14" s="1"/>
     </row>
@@ -2488,7 +2441,7 @@
     <row r="16" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B16" s="1"/>
       <c r="C16" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D16" s="1"/>
     </row>
@@ -2500,14 +2453,14 @@
     <row r="18" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B18" s="1"/>
       <c r="C18" s="2" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="D18" s="1"/>
     </row>
     <row r="19" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B19" s="1"/>
       <c r="C19" s="2" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="D19" s="1"/>
     </row>
@@ -2551,14 +2504,14 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:D24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="B2:D26"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="2.85546875" customWidth="1"/>
     <col min="3" max="3" width="85.7109375" customWidth="1"/>
@@ -2575,7 +2528,7 @@
     <row r="3" spans="2:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="6" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -2587,7 +2540,7 @@
     <row r="5" spans="2:4" ht="39" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="8" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -2599,21 +2552,21 @@
     <row r="7" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B7" s="1"/>
       <c r="C7" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B8" s="1"/>
       <c r="C8" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B9" s="1"/>
       <c r="C9" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D9" s="1"/>
     </row>
@@ -2625,7 +2578,7 @@
     <row r="11" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B11" s="1"/>
       <c r="C11" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D11" s="1"/>
     </row>
@@ -2637,7 +2590,7 @@
     <row r="13" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B13" s="1"/>
       <c r="C13" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D13" s="1"/>
     </row>
@@ -2649,7 +2602,7 @@
     <row r="15" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B15" s="1"/>
       <c r="C15" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D15" s="1"/>
     </row>
@@ -2660,43 +2613,57 @@
     </row>
     <row r="17" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B17" s="1"/>
-      <c r="C17" s="2" t="s">
-        <v>83</v>
+      <c r="C17" s="16" t="s">
+        <v>85</v>
       </c>
       <c r="D17" s="1"/>
     </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
+      <c r="C18" s="16" t="s">
+        <v>84</v>
+      </c>
       <c r="D18" s="1"/>
     </row>
-    <row r="19" spans="2:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="B19" s="1"/>
+      <c r="C19" s="16" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19" s="1"/>
+    </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="2:4" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="B21" s="1"/>
-      <c r="C21" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D21" s="1"/>
-    </row>
+    <row r="21" spans="2:4" ht="29.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
     </row>
-    <row r="23" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:4" ht="28.5" x14ac:dyDescent="0.45">
       <c r="B23" s="1"/>
-      <c r="C23" s="7"/>
+      <c r="C23" s="4" t="s">
+        <v>0</v>
+      </c>
       <c r="D23" s="1"/>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
-      <c r="D24" s="5"/>
+      <c r="D24" s="1"/>
+    </row>
+    <row r="25" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
+      <c r="B25" s="1"/>
+      <c r="C25" s="7"/>
+      <c r="D25" s="1"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2705,14 +2672,14 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="B2:D24"/>
   <sheetViews>
-    <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView topLeftCell="A4" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="2.85546875" customWidth="1"/>
     <col min="3" max="3" width="85.7109375" customWidth="1"/>
@@ -2729,7 +2696,7 @@
     <row r="3" spans="2:4" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="6" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D3" s="1"/>
     </row>
@@ -2738,10 +2705,10 @@
       <c r="C4" s="3"/>
       <c r="D4" s="1"/>
     </row>
-    <row r="5" spans="2:4" ht="39" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:4" ht="19.5" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="8" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D5" s="1"/>
     </row>
@@ -2753,21 +2720,21 @@
     <row r="7" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B7" s="1"/>
       <c r="C7" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D7" s="1"/>
     </row>
     <row r="8" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B8" s="1"/>
       <c r="C8" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D8" s="1"/>
     </row>
     <row r="9" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B9" s="1"/>
       <c r="C9" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D9" s="1"/>
     </row>
@@ -2779,7 +2746,7 @@
     <row r="11" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B11" s="1"/>
       <c r="C11" s="2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="D11" s="1"/>
     </row>
@@ -2791,7 +2758,7 @@
     <row r="13" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B13" s="1"/>
       <c r="C13" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D13" s="1"/>
     </row>
@@ -2803,7 +2770,7 @@
     <row r="15" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B15" s="1"/>
       <c r="C15" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="D15" s="1"/>
     </row>
@@ -2815,7 +2782,7 @@
     <row r="17" spans="2:4" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B17" s="1"/>
       <c r="C17" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D17" s="1"/>
     </row>
